--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-630929.8346745729</v>
+        <v>-633160.8496732148</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0192826803616</v>
+        <v>414.0192826803616</v>
       </c>
       <c r="H2" t="n">
-        <v>185.1357322164824</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>160.9954970528024</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.24729817631209</v>
+        <v>69.24729817631182</v>
       </c>
       <c r="S2" t="n">
-        <v>179.7733425388454</v>
+        <v>179.7733425388453</v>
       </c>
       <c r="T2" t="n">
         <v>217.4775260249106</v>
@@ -716,16 +716,16 @@
         <v>251.2429765210546</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>265.3429481265119</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.9069359742652</v>
+        <v>56.16471272136329</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.6568082862844</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6032821882883</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.75336669408793</v>
+        <v>65.75336669408786</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.52164616243637</v>
+        <v>57.52164616243622</v>
       </c>
       <c r="S3" t="n">
-        <v>26.37909597033993</v>
+        <v>158.9278549030377</v>
       </c>
       <c r="T3" t="n">
-        <v>197.3968100198428</v>
+        <v>170.4513332754383</v>
       </c>
       <c r="U3" t="n">
         <v>225.8962038653876</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>39.12990960148657</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4152657040901</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.65622475280814</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>37.95387533906006</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.485721995979</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>7.978485803304834</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>44.11238832848539</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>192.3121941324471</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>76.71587097450818</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>309.0652187570022</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>34.50046002839137</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>118.96213358952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>49.38957925603675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.56997216773253</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314443</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>193.0355268273919</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>42.32069823344303</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.76432702666341</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.7462241359267</v>
+        <v>68.59371373186524</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,10 +2084,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>61.43506400494846</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>75.71871576881152</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,7 +2293,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>117.5865216387741</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>141.9263636765432</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>54.1602297208217</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>121.7909664076554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>15.42290135054944</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>9.742358773849181</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>18.1222401393175</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433897</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695846</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124637</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515437</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124637</v>
+        <v>49.3772837912464</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.926107002009</v>
+        <v>636.2763324723493</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.926107002009</v>
+        <v>636.2763324723493</v>
       </c>
       <c r="D2" t="n">
-        <v>660.6604083952583</v>
+        <v>636.2763324723493</v>
       </c>
       <c r="E2" t="n">
-        <v>660.6604083952583</v>
+        <v>636.2763324723493</v>
       </c>
       <c r="F2" t="n">
-        <v>249.6745036056507</v>
+        <v>629.3308317231458</v>
       </c>
       <c r="G2" t="n">
-        <v>235.5136120093259</v>
+        <v>211.1295360864169</v>
       </c>
       <c r="H2" t="n">
-        <v>48.50782189166691</v>
+        <v>211.1295360864169</v>
       </c>
       <c r="I2" t="n">
-        <v>48.50782189166691</v>
+        <v>48.50782189166701</v>
       </c>
       <c r="J2" t="n">
         <v>144.520333965625</v>
       </c>
       <c r="K2" t="n">
-        <v>409.1630051359723</v>
+        <v>409.1630051359728</v>
       </c>
       <c r="L2" t="n">
-        <v>789.7522675707567</v>
+        <v>789.7522675707578</v>
       </c>
       <c r="M2" t="n">
-        <v>1229.83769920251</v>
+        <v>1229.837699202512</v>
       </c>
       <c r="N2" t="n">
-        <v>1662.412175667405</v>
+        <v>1662.412175667408</v>
       </c>
       <c r="O2" t="n">
-        <v>2025.692349594563</v>
+        <v>2025.692349594567</v>
       </c>
       <c r="P2" t="n">
-        <v>2298.06919034999</v>
+        <v>2298.069190349995</v>
       </c>
       <c r="Q2" t="n">
-        <v>2425.391094583345</v>
+        <v>2425.39109458335</v>
       </c>
       <c r="R2" t="n">
-        <v>2355.444328748687</v>
+        <v>2355.444328748692</v>
       </c>
       <c r="S2" t="n">
-        <v>2173.855093860964</v>
+        <v>2173.85509386097</v>
       </c>
       <c r="T2" t="n">
-        <v>1954.180825148933</v>
+        <v>1954.180825148939</v>
       </c>
       <c r="U2" t="n">
-        <v>1700.400040784231</v>
+        <v>1700.400040784237</v>
       </c>
       <c r="V2" t="n">
-        <v>1369.337153440661</v>
+        <v>1432.376860858467</v>
       </c>
       <c r="W2" t="n">
-        <v>1369.337153440661</v>
+        <v>1079.608205588353</v>
       </c>
       <c r="X2" t="n">
-        <v>1369.337153440661</v>
+        <v>1079.608205588353</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.926107002009</v>
+        <v>1022.876172536471</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>839.8575683621328</v>
+        <v>733.1875863537608</v>
       </c>
       <c r="C3" t="n">
-        <v>665.4045390810059</v>
+        <v>558.7345570726338</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4045390810059</v>
+        <v>558.7345570726338</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1670840755503</v>
+        <v>399.4971020671783</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6325261024352</v>
+        <v>252.9625440940633</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5953460152792</v>
+        <v>114.9253640069073</v>
       </c>
       <c r="H3" t="n">
-        <v>114.9253640069072</v>
+        <v>114.9253640069073</v>
       </c>
       <c r="I3" t="n">
-        <v>48.50782189166691</v>
+        <v>48.50782189166701</v>
       </c>
       <c r="J3" t="n">
-        <v>111.9988366483575</v>
+        <v>111.9988366483578</v>
       </c>
       <c r="K3" t="n">
-        <v>347.135936682395</v>
+        <v>347.1359366823957</v>
       </c>
       <c r="L3" t="n">
-        <v>532.318919401928</v>
+        <v>724.7111816854326</v>
       </c>
       <c r="M3" t="n">
-        <v>1024.910642887006</v>
+        <v>1217.302905170511</v>
       </c>
       <c r="N3" t="n">
-        <v>1546.246816927771</v>
+        <v>1738.639079211277</v>
       </c>
       <c r="O3" t="n">
-        <v>1956.751886635193</v>
+        <v>2149.1441489187</v>
       </c>
       <c r="P3" t="n">
-        <v>2269.21532816423</v>
+        <v>2425.39109458335</v>
       </c>
       <c r="Q3" t="n">
-        <v>2425.391094583345</v>
+        <v>2425.39109458335</v>
       </c>
       <c r="R3" t="n">
-        <v>2367.288421691996</v>
+        <v>2367.288421692001</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.642870206804</v>
+        <v>2206.755234921256</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.252153015043</v>
+        <v>2034.582171006671</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.074169312632</v>
+        <v>1806.40418730426</v>
       </c>
       <c r="V3" t="n">
-        <v>1677.922061080889</v>
+        <v>1571.252079072517</v>
       </c>
       <c r="W3" t="n">
-        <v>1423.684704352688</v>
+        <v>1317.014722344315</v>
       </c>
       <c r="X3" t="n">
-        <v>1215.833204147155</v>
+        <v>1109.163222138783</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.072905382201</v>
+        <v>901.4029233738288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.6141508856973</v>
+        <v>101.6959277025843</v>
       </c>
       <c r="C4" t="n">
-        <v>217.6141508856973</v>
+        <v>101.6959277025843</v>
       </c>
       <c r="D4" t="n">
-        <v>217.6141508856973</v>
+        <v>101.6959277025843</v>
       </c>
       <c r="E4" t="n">
-        <v>217.6141508856973</v>
+        <v>101.6959277025843</v>
       </c>
       <c r="F4" t="n">
-        <v>217.6141508856973</v>
+        <v>101.6959277025843</v>
       </c>
       <c r="G4" t="n">
-        <v>48.50782189166691</v>
+        <v>101.6959277025843</v>
       </c>
       <c r="H4" t="n">
-        <v>48.50782189166691</v>
+        <v>101.6959277025843</v>
       </c>
       <c r="I4" t="n">
-        <v>48.50782189166691</v>
+        <v>101.6959277025843</v>
       </c>
       <c r="J4" t="n">
-        <v>48.50782189166691</v>
+        <v>48.50782189166701</v>
       </c>
       <c r="K4" t="n">
-        <v>92.67960950952651</v>
+        <v>92.67960950952684</v>
       </c>
       <c r="L4" t="n">
-        <v>204.7307244491456</v>
+        <v>204.7307244491462</v>
       </c>
       <c r="M4" t="n">
-        <v>333.2620375218775</v>
+        <v>333.2620375218784</v>
       </c>
       <c r="N4" t="n">
-        <v>464.1717796732033</v>
+        <v>464.1717796732045</v>
       </c>
       <c r="O4" t="n">
-        <v>569.0718193912184</v>
+        <v>569.0718193912198</v>
       </c>
       <c r="P4" t="n">
-        <v>635.3112431829492</v>
+        <v>635.3112431829509</v>
       </c>
       <c r="Q4" t="n">
-        <v>635.3112431829492</v>
+        <v>596.9739953657185</v>
       </c>
       <c r="R4" t="n">
-        <v>635.3112431829492</v>
+        <v>596.9739953657185</v>
       </c>
       <c r="S4" t="n">
-        <v>635.3112431829492</v>
+        <v>596.9739953657185</v>
       </c>
       <c r="T4" t="n">
-        <v>635.3112431829492</v>
+        <v>369.2106398142245</v>
       </c>
       <c r="U4" t="n">
-        <v>635.3112431829492</v>
+        <v>369.2106398142245</v>
       </c>
       <c r="V4" t="n">
-        <v>635.3112431829492</v>
+        <v>369.2106398142245</v>
       </c>
       <c r="W4" t="n">
-        <v>627.2521666139544</v>
+        <v>369.2106398142245</v>
       </c>
       <c r="X4" t="n">
-        <v>399.262615715937</v>
+        <v>141.2210889162071</v>
       </c>
       <c r="Y4" t="n">
-        <v>399.262615715937</v>
+        <v>141.2210889162071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.638474227114</v>
+        <v>1191.835263233622</v>
       </c>
       <c r="C5" t="n">
-        <v>881.6759572867027</v>
+        <v>1191.835263233622</v>
       </c>
       <c r="D5" t="n">
-        <v>523.4102586799522</v>
+        <v>1191.835263233622</v>
       </c>
       <c r="E5" t="n">
-        <v>523.4102586799522</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F5" t="n">
-        <v>112.4243538903447</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
-        <v>98.50094982893556</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>98.50094982893556</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>1250.638474227114</v>
+        <v>1191.835263233622</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>650.638205444305</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>650.638205444305</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>772.7872288827589</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2662.300141494594</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2331.237254151024</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4872,40 +4872,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>607.965212903889</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X10" t="n">
-        <v>272.8312459770186</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="11">
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888352</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3051.398683947134</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.6340846510827</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="C13" t="n">
-        <v>686.6979017231758</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="D13" t="n">
-        <v>536.5812623108401</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>435.6392238341433</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>435.6392238341433</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258582</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258582</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.075128624852</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.075128624852</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X13" t="n">
-        <v>1258.075128624852</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y13" t="n">
-        <v>1037.282549481322</v>
+        <v>583.5523174165364</v>
       </c>
     </row>
     <row r="14">
@@ -5255,43 +5255,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>416.3606924710451</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780954</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5303,19 +5303,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>637.1336314069201</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.3434661047</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674226</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.47398379987</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593983</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570219</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>901.3723255570219</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.7820962371599</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5522,16 +5522,16 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N17" t="n">
-        <v>3070.887536710053</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.852187039507</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>708.7441371531723</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C19" t="n">
-        <v>539.8079542252655</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>389.6913148129298</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931526</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501052</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1253.788099626696</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>999.103611420809</v>
       </c>
       <c r="W19" t="n">
-        <v>999.1036114208126</v>
+        <v>709.6864413838484</v>
       </c>
       <c r="X19" t="n">
-        <v>771.1140605227953</v>
+        <v>481.6968904858311</v>
       </c>
       <c r="Y19" t="n">
-        <v>771.1140605227953</v>
+        <v>481.6968904858311</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3008.107474639232</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3888.072124968687</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5829,10 +5829,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.4103109586945</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="C22" t="n">
-        <v>243.4741280307875</v>
+        <v>601.8635744322842</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>451.7469350199484</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>303.8338414375553</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1879.859914823076</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1688.174030649902</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1466.407415219428</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1177.304548345072</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V22" t="n">
-        <v>922.6200601391852</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W22" t="n">
-        <v>633.2028901022246</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X22" t="n">
-        <v>633.2028901022246</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.4103109586945</v>
+        <v>770.7997573601911</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>845.0839474760692</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1296.118160724478</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2274.668463554307</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780953</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6072,7 +6072,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>508.5026418377232</v>
+        <v>974.4083489326728</v>
       </c>
       <c r="C25" t="n">
-        <v>508.5026418377232</v>
+        <v>805.4721660047659</v>
       </c>
       <c r="D25" t="n">
-        <v>508.5026418377232</v>
+        <v>655.3555265924301</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553301</v>
+        <v>507.442433010037</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>360.5524855121266</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1501.386430122118</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1246.701941916231</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W25" t="n">
-        <v>957.2847718792707</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X25" t="n">
-        <v>729.2952209812534</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y25" t="n">
-        <v>508.5026418377232</v>
+        <v>1156.056813762912</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6233,19 +6233,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.5676213586405</v>
+        <v>710.660477670796</v>
       </c>
       <c r="C28" t="n">
-        <v>392.5676213586405</v>
+        <v>541.7242947428891</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>541.7242947428891</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>393.811201160496</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>393.811201160496</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6412,22 +6412,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V28" t="n">
-        <v>1130.766921437149</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W28" t="n">
-        <v>841.349751400188</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X28" t="n">
-        <v>613.3602005021706</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.5676213586405</v>
+        <v>710.660477670796</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,22 +6461,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3641.993171584094</v>
       </c>
       <c r="P29" t="n">
         <v>4260.556453353931</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>550.3214813792652</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="C31" t="n">
-        <v>550.3214813792652</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>400.2048419669294</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>252.2917483845363</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4018008866259</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X31" t="n">
-        <v>771.1140605227953</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y31" t="n">
-        <v>550.3214813792652</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="32">
@@ -6677,43 +6677,43 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1797.117834600129</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2330.649739272054</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330836</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>211.1920047000667</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.039769608815</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>841.6225995718539</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>613.6330486738366</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>392.8404695303064</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668888</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
@@ -6941,34 +6941,34 @@
         <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1496.733761127193</v>
+        <v>1261.907203722594</v>
       </c>
       <c r="M35" t="n">
-        <v>2030.265665799118</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.0444828579</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737237</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,10 +6977,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E37" t="n">
         <v>449.484033191384</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350172</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
         <v>437.4316968760676</v>
@@ -7178,46 +7178,46 @@
         <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1394.992678104634</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1928.524582776558</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2475.303399835341</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7296,7 +7296,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7363,19 +7363,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7403,37 +7403,37 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1116.774618643542</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>2095.324921473371</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2642.103738532153</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3145.07620941149</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P41" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7442,16 +7442,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899673</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257049</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913851</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.043718641548</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643403</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302714</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7588,31 +7588,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519673</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L44" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.89614187084</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N44" t="n">
-        <v>2577.0444828579</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.016953737237</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7770,7 +7770,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="46">
@@ -7801,7 +7801,7 @@
         <v>131.0229611302714</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>176.504726835274</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>281.8804495850013</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>52.32398832260095</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>248.8400772687158</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>374.169394802195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9170,19 +9170,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>126.3855966773243</v>
+        <v>282.7041781993168</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>189.7998007892645</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>229.1155640189928</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>39.4832155777267</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>161.8544041422902</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>226.0494095077362</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>241.9338129178262</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>277.2206841544144</v>
+        <v>40.02214132148612</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>174.4519134245564</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>62.52018570663853</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>28.6560847760378</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>141.1948880726612</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>330.0732259346903</v>
       </c>
     </row>
     <row r="3">
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1085547440527</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.1371952122443</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.65622475280828</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>278.5445125332862</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>70.45583609129814</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>59.10211649643614</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>183.3889571555941</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.8203263254314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.0857560460106</v>
+        <v>111.2382664500721</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.98598401798279</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040984016</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>13.21343690123581</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>48.43928662025415</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>144.2854745290697</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>111.8655785382065</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>130.3466769161726</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>151.8239197480784</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>156.283449485179</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>149.1245809593103</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>-8.597567102697212e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>238430.3823239646</v>
+        <v>238430.3823239647</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="E2" t="n">
+        <v>238249.0721321898</v>
+      </c>
+      <c r="F2" t="n">
         <v>238249.0721321899</v>
-      </c>
-      <c r="F2" t="n">
-        <v>238249.0721321898</v>
       </c>
       <c r="G2" t="n">
         <v>238249.0721321899</v>
       </c>
       <c r="H2" t="n">
-        <v>238249.0721321898</v>
+        <v>238249.07213219</v>
       </c>
       <c r="I2" t="n">
         <v>238249.0721321899</v>
@@ -26341,19 +26341,19 @@
         <v>238249.0721321899</v>
       </c>
       <c r="L2" t="n">
-        <v>238249.0721321898</v>
+        <v>238249.0721321899</v>
       </c>
       <c r="M2" t="n">
+        <v>246312.5309592851</v>
+      </c>
+      <c r="N2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="O2" t="n">
         <v>246312.5309592848</v>
       </c>
-      <c r="N2" t="n">
-        <v>246312.5309592848</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592849</v>
-      </c>
       <c r="P2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510843.5836680245</v>
+        <v>510843.583668026</v>
       </c>
       <c r="C3" t="n">
-        <v>75205.15751768311</v>
+        <v>75205.15751768168</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158647.2568877912</v>
+        <v>158647.2568877915</v>
       </c>
       <c r="K3" t="n">
-        <v>17485.45300661287</v>
+        <v>17485.45300661253</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>122321.7272543794</v>
+        <v>122321.7272543793</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207271.146290037</v>
+        <v>207271.1462900365</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499376</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499377</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499377</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>62292.78252777377</v>
+        <v>62292.78252777376</v>
       </c>
       <c r="N4" t="n">
-        <v>62292.78252777377</v>
+        <v>62292.78252777374</v>
       </c>
       <c r="O4" t="n">
-        <v>62292.78252777371</v>
+        <v>62292.78252777374</v>
       </c>
       <c r="P4" t="n">
-        <v>62292.78252777371</v>
+        <v>62292.78252777374</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77453.39934293457</v>
+        <v>77453.39934293466</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557137.7469770315</v>
+        <v>-557203.4315489936</v>
       </c>
       <c r="C6" t="n">
-        <v>-112816.2105495392</v>
+        <v>-112816.2105495378</v>
       </c>
       <c r="D6" t="n">
-        <v>-37611.05303185605</v>
+        <v>-37611.05303185617</v>
       </c>
       <c r="E6" t="n">
-        <v>-610602.5837899242</v>
+        <v>-610669.7792801501</v>
       </c>
       <c r="F6" t="n">
-        <v>116774.8302034824</v>
+        <v>116707.6347132567</v>
       </c>
       <c r="G6" t="n">
-        <v>116774.8302034825</v>
+        <v>116707.6347132567</v>
       </c>
       <c r="H6" t="n">
-        <v>116774.8302034824</v>
+        <v>116707.6347132568</v>
       </c>
       <c r="I6" t="n">
-        <v>116774.8302034824</v>
+        <v>116707.6347132567</v>
       </c>
       <c r="J6" t="n">
-        <v>-41872.42668430878</v>
+        <v>-41939.62217453492</v>
       </c>
       <c r="K6" t="n">
-        <v>99289.37719686957</v>
+        <v>99222.18170664416</v>
       </c>
       <c r="L6" t="n">
-        <v>116774.8302034824</v>
+        <v>116707.6347132566</v>
       </c>
       <c r="M6" t="n">
-        <v>-27679.92049767449</v>
+        <v>-27679.92049767409</v>
       </c>
       <c r="N6" t="n">
+        <v>94641.80675670505</v>
+      </c>
+      <c r="O6" t="n">
         <v>94641.80675670493</v>
       </c>
-      <c r="O6" t="n">
-        <v>94641.8067567051</v>
-      </c>
       <c r="P6" t="n">
-        <v>94641.80675670513</v>
+        <v>94641.8067567047</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.2593901498951</v>
+        <v>319.2593901498962</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.3477736458364</v>
+        <v>606.3477736458376</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.2593901498951</v>
+        <v>319.2593901498962</v>
       </c>
       <c r="C3" t="n">
-        <v>58.48427406719156</v>
+        <v>58.48427406719048</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.3477736458364</v>
+        <v>606.3477736458376</v>
       </c>
       <c r="C4" t="n">
-        <v>67.9394991087193</v>
+        <v>67.93949910871797</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>606.3477736458364</v>
+        <v>606.3477736458376</v>
       </c>
       <c r="K4" t="n">
-        <v>67.9394991087193</v>
+        <v>67.93949910871797</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540593</v>
+        <v>340.0491884540588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>606.3477736458364</v>
+        <v>606.3477736458376</v>
       </c>
       <c r="K4" t="n">
-        <v>67.9394991087193</v>
+        <v>67.93949910871797</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.3306202891436</v>
       </c>
       <c r="I2" t="n">
-        <v>160.9954970528026</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>62.40931034362296</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.33100268178839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6032821882882</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>132.5487589326978</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>26.94547674440443</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>140.7020705804507</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4152657040901</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1085547440527</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.1371952122443</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.95387533906023</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.4072119725567</v>
+        <v>151.4072119725566</v>
       </c>
       <c r="S4" t="n">
         <v>213.9834791694747</v>
       </c>
       <c r="T4" t="n">
-        <v>225.485721995979</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2876267935253</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>107.8189279163759</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>193.9257445236065</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>175.4217723493198</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>45.61782286368071</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.9152527805801</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>27.70305839063784</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>169.1950740960581</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-2.43893679709444e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-5.510559186310598e-13</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.061875451984413e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859273</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859124</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.283454834773447</v>
+        <v>1.283454834773451</v>
       </c>
       <c r="H2" t="n">
-        <v>13.14418182662357</v>
+        <v>13.14418182662361</v>
       </c>
       <c r="I2" t="n">
-        <v>49.48039251760336</v>
+        <v>49.48039251760352</v>
       </c>
       <c r="J2" t="n">
-        <v>108.9316247828529</v>
+        <v>108.9316247828533</v>
       </c>
       <c r="K2" t="n">
-        <v>163.260267938813</v>
+        <v>163.2602679388135</v>
       </c>
       <c r="L2" t="n">
-        <v>202.5387988385109</v>
+        <v>202.5387988385116</v>
       </c>
       <c r="M2" t="n">
-        <v>225.3634387564132</v>
+        <v>225.3634387564139</v>
       </c>
       <c r="N2" t="n">
-        <v>229.0100548057132</v>
+        <v>229.010054805714</v>
       </c>
       <c r="O2" t="n">
-        <v>216.2477007924348</v>
+        <v>216.2477007924355</v>
       </c>
       <c r="P2" t="n">
-        <v>184.5624095589652</v>
+        <v>184.5624095589659</v>
       </c>
       <c r="Q2" t="n">
-        <v>138.5986832886412</v>
+        <v>138.5986832886416</v>
       </c>
       <c r="R2" t="n">
-        <v>80.6218197648376</v>
+        <v>80.62181976483787</v>
       </c>
       <c r="S2" t="n">
-        <v>29.24672704739995</v>
+        <v>29.24672704740005</v>
       </c>
       <c r="T2" t="n">
-        <v>5.618323539220766</v>
+        <v>5.618323539220786</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1026763867818757</v>
+        <v>0.1026763867818761</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6867088769261895</v>
+        <v>0.6867088769261919</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6321620482082</v>
+        <v>6.632162048208222</v>
       </c>
       <c r="I3" t="n">
-        <v>23.64326615732714</v>
+        <v>23.64326615732722</v>
       </c>
       <c r="J3" t="n">
-        <v>64.87892946432918</v>
+        <v>64.87892946432939</v>
       </c>
       <c r="K3" t="n">
-        <v>110.8884242183839</v>
+        <v>110.8884242183842</v>
       </c>
       <c r="L3" t="n">
-        <v>149.1031708431185</v>
+        <v>149.103170843119</v>
       </c>
       <c r="M3" t="n">
-        <v>173.9963676316928</v>
+        <v>173.9963676316934</v>
       </c>
       <c r="N3" t="n">
-        <v>178.6015337405531</v>
+        <v>178.6015337405537</v>
       </c>
       <c r="O3" t="n">
-        <v>163.3855107307675</v>
+        <v>163.3855107307681</v>
       </c>
       <c r="P3" t="n">
-        <v>131.1312766825107</v>
+        <v>131.1312766825112</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.65778576342028</v>
+        <v>87.65778576342056</v>
       </c>
       <c r="R3" t="n">
-        <v>42.63618799020676</v>
+        <v>42.63618799020691</v>
       </c>
       <c r="S3" t="n">
-        <v>12.75531620080005</v>
+        <v>12.75531620080009</v>
       </c>
       <c r="T3" t="n">
-        <v>2.767918674978807</v>
+        <v>2.767918674978816</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04517821558724933</v>
+        <v>0.04517821558724949</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5757136543686633</v>
+        <v>0.5757136543686652</v>
       </c>
       <c r="H4" t="n">
-        <v>5.118617763386847</v>
+        <v>5.118617763386863</v>
       </c>
       <c r="I4" t="n">
-        <v>17.31327971501399</v>
+        <v>17.31327971501405</v>
       </c>
       <c r="J4" t="n">
-        <v>40.70295536386449</v>
+        <v>40.70295536386463</v>
       </c>
       <c r="K4" t="n">
-        <v>66.88745911665013</v>
+        <v>66.88745911665036</v>
       </c>
       <c r="L4" t="n">
-        <v>85.59291912313746</v>
+        <v>85.59291912313775</v>
       </c>
       <c r="M4" t="n">
-        <v>90.24573220253509</v>
+        <v>90.24573220253539</v>
       </c>
       <c r="N4" t="n">
-        <v>88.09989039988832</v>
+        <v>88.09989039988862</v>
       </c>
       <c r="O4" t="n">
-        <v>81.37450816476345</v>
+        <v>81.37450816476372</v>
       </c>
       <c r="P4" t="n">
-        <v>69.62994961564266</v>
+        <v>69.6299496156429</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.20816791263416</v>
+        <v>48.20816791263432</v>
       </c>
       <c r="R4" t="n">
-        <v>25.8861794046128</v>
+        <v>25.88617940461289</v>
       </c>
       <c r="S4" t="n">
-        <v>10.03311886749752</v>
+        <v>10.03311886749755</v>
       </c>
       <c r="T4" t="n">
-        <v>2.45986743230247</v>
+        <v>2.459867432302478</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03140256296556349</v>
+        <v>0.0314025629655636</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.9823354282404</v>
+        <v>96.98233542824077</v>
       </c>
       <c r="K2" t="n">
-        <v>267.3158294649971</v>
+        <v>267.3158294649977</v>
       </c>
       <c r="L2" t="n">
-        <v>384.433598418974</v>
+        <v>384.4335984189747</v>
       </c>
       <c r="M2" t="n">
-        <v>444.5307390219729</v>
+        <v>444.5307390219737</v>
       </c>
       <c r="N2" t="n">
-        <v>436.9439156211065</v>
+        <v>436.9439156211072</v>
       </c>
       <c r="O2" t="n">
-        <v>366.9496706334934</v>
+        <v>366.9496706334941</v>
       </c>
       <c r="P2" t="n">
-        <v>275.1281219751784</v>
+        <v>275.1281219751789</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.6079840740964</v>
+        <v>128.6079840740968</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>64.13233813807132</v>
+        <v>64.13233813807153</v>
       </c>
       <c r="K3" t="n">
-        <v>237.5122222566035</v>
+        <v>237.5122222566038</v>
       </c>
       <c r="L3" t="n">
-        <v>187.0535178985183</v>
+        <v>381.389136366704</v>
       </c>
       <c r="M3" t="n">
-        <v>497.5673974596745</v>
+        <v>497.567397459675</v>
       </c>
       <c r="N3" t="n">
-        <v>526.6021960007733</v>
+        <v>526.602196000774</v>
       </c>
       <c r="O3" t="n">
-        <v>414.6515855630527</v>
+        <v>414.6515855630532</v>
       </c>
       <c r="P3" t="n">
-        <v>315.6196379081176</v>
+        <v>279.0373188531822</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.7532994132479</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.61796729076728</v>
+        <v>44.61796729076751</v>
       </c>
       <c r="L4" t="n">
-        <v>113.1829443834536</v>
+        <v>113.1829443834539</v>
       </c>
       <c r="M4" t="n">
-        <v>129.8296091643757</v>
+        <v>129.829609164376</v>
       </c>
       <c r="N4" t="n">
-        <v>132.2320627791169</v>
+        <v>132.2320627791172</v>
       </c>
       <c r="O4" t="n">
-        <v>105.9596360788031</v>
+        <v>105.9596360788034</v>
       </c>
       <c r="P4" t="n">
-        <v>66.90850888053615</v>
+        <v>66.90850888053639</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>756.893078156935</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>324.040058608738</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>926.4712302151065</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35817,7 +35817,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.353130222636</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35890,19 +35890,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>525.1475828966961</v>
+        <v>681.4661644186887</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36054,7 +36054,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.353130222636</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>588.5617870086363</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>566.3068505743933</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,16 +36370,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>591.7850509906382</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>669.9074050305093</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>624.8113957271081</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>697.5239273101583</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37309,10 +37309,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>732.8107985467466</v>
+        <v>495.6122557138183</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37324,7 +37324,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>630.0420278168885</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,16 +37555,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>518.1103000989707</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37795,13 +37795,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>580.9579201889493</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
